--- a/UK_VaccinationsData.xlsx
+++ b/UK_VaccinationsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naz\Desktop\au\SFA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ECDC016-0200-402E-AE33-4DD7AC5F35C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF16BD6-2B63-4564-959C-6F5C6F6AC963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -553,7 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K905"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+    <sheetView topLeftCell="A398" workbookViewId="0">
       <selection activeCell="J905" sqref="J905"/>
     </sheetView>
   </sheetViews>
@@ -33102,13 +33102,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C6E0B2-E17A-4F5F-AF9F-8084D2CA7428}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -33209,5 +33210,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>